--- a/data/hotels_by_city/Dallas/Dallas_shard_494.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_494.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="313">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>anntd</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>We loved this La Quinta Inn and Suites from the warm greeting at the front desk to the clean room and bathroom. It was very spacious with nice decor. Toiletries seemed to be upgraded. The bed was comfortable with pillow choices. Breakfast area was clean and well stocked. Wish English muffins were an option.More</t>
   </si>
   <si>
+    <t>Marlenalovestotravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r578409084-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>This hotel sits behind a couple of other hotels, which is perfect. I never heard the I-75 traffic. Because it was so quiet, I had a wonderful night's sleep. The room was also large and beautiful.  The shower floor had a small black hair on it near the back wall and I don't have black hair. I used to work in hotels and have always been observant of such things for inspection. The breakfast had a great variety of choices to make and delicious...except the oatmeal, which was overdone.  Overall, however, I will definitely return to this place if I'm in that area again. It was fantastic.More</t>
   </si>
   <si>
+    <t>Joseph G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r585289220-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>The accommodations are on par for most new La Quinta hotels, which are a very good value. However, the cleanliness of this particular location is very lacking. From the elevators not being cleaned during my stay (3 nights) to the hallways and lobby floors. It appears as though there is a bare minimum amount of cleaning performed. In my room there was some sort of lotion or "fluid" smeared on the front of the dresser. There were "spots" on the bathroom floor in front of the toilet. I don't need to tell anyone what those were. My room smelled like a burrito had just been microwaved - literally. For such a new property, it really was not a comfortable stay because of the perceived lack of cleaning.More</t>
   </si>
   <si>
+    <t>Michael J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r584922144-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t>I stay in LaQuinta hotels very frequently and almost exclusively.The carpets in the hallways appeared as if they were not vacuumed regularly.I had to switch rooms due to a large number of hairs visible on the bathroom floor. (The fellow working the front desk provided a new room immediately. Thank you.)There was a broom sitting outside another room on my floor? The main elevator hall tile floor always seemed to have dried residue on it, as well as the elevator floors. Maybe from persons using the pool?My business associate had something on his dresser? (see photo) He also had hairs on his bathroom floor.More</t>
   </si>
   <si>
+    <t>huntergparks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r584561270-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -279,6 +294,9 @@
     <t>We travel through Dallas often because our family lives in Richardson.  It's always been a little challenging sharing a space with them.  This time we decided to book a hotel so we can both have our own space.  This turned out to be a really good decision.  That said, we booked a room at the La Quinta Inn, Richardson.  In short, the hotel is new, tidy, and centrally located.  The rooms are clean and modern.  The workout facility is excellent and has enough floor space for cross-fit activities.  The indoor pool is nice and warm.  Fresh towels are available in both spaces.  Plenty of area to setup work spaces and the wifi is solid.  Breakfast is basic but good.  In summary, we will definitely be staying here for future family visits.  Well played La Quinta :)More</t>
   </si>
   <si>
+    <t>Misterbunns</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r584449008-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -297,6 +315,9 @@
     <t>This a new Inn that is a little hard to find if you don't know that it is behind a motel 6. There was still the new small to it and we were pleased that we were accommodated with a first floor room due to our furry companions being with us. The room was clean and the check in went seamless. Our room was quiet and the pool was ok, although the room was very steamy. The breakfast was ok, but when the attendant was asked for some more forks, she replied,"No more, no more today." Seems like she was programmed to say this in case there was something that was missing after 8AM. There was also a small ant that had crawled inside the cup that held the pancake syrup. This may need to be addressed sooner than later. Outside these minor glitches, we may return again.More</t>
   </si>
   <si>
+    <t>Anita767</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r581067655-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -324,6 +345,9 @@
     <t>There are two individuals that literally wowed me at this hotel. They are Cornell Watson and Kevin Robinson. I stayed at this hotel in March 2018. I told them I was shopping around for a new hotel chain for frequent business travel. They went out of their way to answer all of my questions and even offered me some cold water. Loved the hotel. Texas Roadhouse is right newt door so you don't have to drive in heavy traffic to find a place to eat. The decor is refreshingly modern and very clean. I would highly recommend this hotel. Cornell and Kevin were amazing!More</t>
   </si>
   <si>
+    <t>Roberto C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r580962161-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -343,6 +367,9 @@
   </si>
   <si>
     <t>Great place to stay, even if you have to drive past other places, this is the one to stay at.  Professional &amp; friendly staff, excellent Breakfast as staff who maintain everything well stocked and available.More</t>
+  </si>
+  <si>
+    <t>U1632LGmichaelk</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r579445902-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
@@ -377,6 +404,9 @@
 Finally, OUR DOOR WOULD NOT CLOSE...This is a brand-new LaQuinta, and a very contemporary-decorated place. I asked the lady @ front desk if I could move a lobby chair 9 feet, to use it @ the ‘business center’ computers.  She said ‘sure”, and I moved it over, sat down and worked on the computer for about 1.25 hrs.  Then the Owner/Franchisee approached me &amp; abruptly told me I can not use the lobby chair @ the business center computer area!!  He (Ray) told me it is not allowed. I told him that his employee approved the use of the chair. He said I was wrong, &amp; that I needed to get off the computer. Ray then told me that it is corporate policy that no chairs can be used at the business center because THEY DON’T WANT CLIENTS USING THE COMPUTERS FOR ‘long periods of time” ??!!!!!Other items to note: I stayed 5/8/18 &amp; 5/9/18...In room 304, the glass shower door handles were very loose, and I lost my footing when I grabbed the loose chrome ‘handles’ (Where you could hang your shower towels).The fridge made a constant loud sound, like there was water running in the wall behind the mini-fridge, which was NEVER fixed, after asking each day to get it fixed.  The coffee dispenser in the lobby breakfast area was broken BOTH days, and all Mgmnt did was put an out-of-order sign on it.Finally, OUR DOOR WOULD NOT CLOSE ALL THE WAY!!  IT WOULD NOT CLOSE, &amp; IT COULD NOT BE LOCKED, &amp; management did not fix it during our 2 nights there!!I love my LQ, am an ELITE member, and stay @ LQ 8-10 times a year.  This type of service is truly an anomaly, and these deficiencies in service and support lies fully @ the feet of Ray, the owner/Franchisee.  I gave him 2 different opportunities to apologize, or correct the deficiencies, and he chose to do nothing!Please be VERY WARY of purposefully choosing to stay @ this location... there’s a couple of very nice LQ properties a bit north of here, &amp; with more competitive rates too!Steer clear it at all possible!!More</t>
   </si>
   <si>
+    <t>James B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r578636829-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -401,6 +431,9 @@
     <t>This is a fairly new La Quinta which was located in a convenient location for my needs.  The property was nice, the staff was friendly and my room was great.  I've stayed here twice and would stay again.  More</t>
   </si>
   <si>
+    <t>Paul B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r577786578-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -425,6 +458,9 @@
     <t>This is a very nice new hotel. Located where two main highways intersect. Easy access to downtown as well as all areas east and west of North Dallas.    Good value. Highly recommend this hotel. Very clean. Great staff!More</t>
   </si>
   <si>
+    <t>ellenmI4943NX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r577003187-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -449,6 +485,9 @@
     <t>The beds were very comfortable, staff very friendly, rooms were clean,  good breakfast, lots of varieties to choose from, with the added breakfast, the motel was very reasonable in price.  We had a doctors appointment and the motel was conveniently close by.More</t>
   </si>
   <si>
+    <t>82normaf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r575555188-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -473,6 +512,9 @@
     <t>Hotel Cleanliness was good, customer service on key, breakfast was great, location was perfect....just a bit too noisy late night and mid afternoon. Thank you Bianca/Blanca and other staff members for your welcoming service.More</t>
   </si>
   <si>
+    <t>Nicole Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r570581274-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -497,6 +539,9 @@
     <t>We happen to stayed here because we wanted to be near everywhere. This location is great. It’s quiet and have no problem with the traffic noise. Slept well and so did the kids. The room were great and very very clean. The staffs were great. I called for more sheets and blankets and they were pretty fast to get it. I would definitely come back and stay at this hotel again! :)More</t>
   </si>
   <si>
+    <t>Erlinda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r568918032-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -521,6 +566,9 @@
     <t>Hotel was great! We enjoyed our stay. Room was awesome, very nice. Loved the bathroom! Very comfortable bed. Staff was friendly. Pool was nice. Water was a bit cold, but we enjoyed it. Breakfast was good. Overall it was a great hotel pick! We would stay here again!More</t>
   </si>
   <si>
+    <t>03nik</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r568774432-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -539,6 +587,9 @@
     <t>The location was great. Near by the galleria mall, In n Out burger just down the street...we been staying this area everytime we come visit dallas. Plus this place is still new so the rooms smell great and very clean. Staff were very helpful. Breakfast was good too!More</t>
   </si>
   <si>
+    <t>D2025HWandrewl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r568008664-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -563,6 +614,9 @@
     <t>Is a new La Quinta.  Good location.   Staff was welcoming.   Plenty of breakfast sitting space.   Nice rooms.   Even anti-bacterial TV remote control.  Breakast good too.  Parking well-lighted.  Good for families.More</t>
   </si>
   <si>
+    <t>richardpV5685CN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r567131003-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -587,6 +641,9 @@
     <t>My husband had a business trip to the Dallas /Richardson area so my daughters and I tagged along. We’ve stayed in La Quintas before but were really surprised at this location. The hotel was clean , the room smelled fresh and clean, the staff was friendly and helpful,the pool was indoors and warm, and the breakfast was good. We were very happy with our stay and the only thing we had issue with was the size of the parking  lot. It was hard to find a spot close up but if you couldn’t park close the lot was well lit. But beyond that one inconvenience our stay was very enjoyable.More</t>
   </si>
   <si>
+    <t>987kendallw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r566962080-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -611,6 +668,9 @@
     <t>The hotel itself is very nice and new. The pool looked nice and breakfast was nice. I noticed the hallway was abnormally dirty but my room was very sleek and nice and clean. I did worry about my car getting broken into due to neighborhood surrounding the hotel. The area is also very busy with traffic which made grabbing dinner after a day of meetings challenging. MapQuest also did not take me to the hotel. Luckily I noticed the sign and found it. Kind of hidden together with three hotels sharing the same parking lot.More</t>
   </si>
   <si>
+    <t>Carren D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r565601990-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -638,6 +698,9 @@
     <t>This hotel was about 40 minutes from the airport.  The design and furnishings were up to date and looked new.  The hotel was clean and comfortable.  The clerks were pleasant and helpful. I would recommend this hotel to others.  More</t>
   </si>
   <si>
+    <t>rajeshj2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r552332171-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -665,6 +728,9 @@
     <t>We really enjoyed our stay. Everything was perfect. Clean rooms with new beds. Hot breakfast with variety of items to choose from. Really like their coffee machine with different flavors which is complementary. Beautiful lobby to enjoy the breakfast. Will definitely stay in future.More</t>
   </si>
   <si>
+    <t>georgemB504VN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r552137704-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -683,6 +749,9 @@
     <t>Super new and clean hotel. Beds very comfy, room modern and clean. Convenient to North Dallas burbs. Breakfast typical above average LaQuinta Only way to get there however is on the ONE WAY! southbound US-75 west access road. 10' security fence and locked lobby, clean out your parked car well and dead bolt your door.More</t>
   </si>
   <si>
+    <t>764hermanp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r551076053-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -704,6 +773,9 @@
     <t>Hotel is new and beautiful, well kept with a friendly staff. Has a full breakfast in the am. Pool was very clean and maintained. It was also located next to my grad kid which made it easy for us. Will be returning to this hotel again.More</t>
   </si>
   <si>
+    <t>thm1999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r550630673-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -725,6 +797,9 @@
     <t>New hotel so it was a very nice facility.  Front desk personnel was very friendly.  Room was large but sparsely decorated.  Needs a side table by chair. Good location but a sketchy neighborhood next door. We were concerned that our vehicle might get broken in so we removed as much as possible.  More</t>
   </si>
   <si>
+    <t>naomid2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r550797179-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -740,6 +815,9 @@
     <t>New, clean hotel in a convenient location (easy access to major highways, near several restaurants) with excellent breakfast service, heated pool, and fast wifi. Only complaint was that the curtains didn't block out the light from the parking lot.More</t>
   </si>
   <si>
+    <t>A6185OWsarak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r535827147-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -767,6 +845,9 @@
     <t>Elite member,  no welcome gift,  barely had a staff member come to check us in then take forever at 3 in the morning. Breakfast was laughable, food always empty no staff their either.   Went to check out no staff again. hotel it self nice if you dont mind not getting checked in or eating or anything else that requires a human.More</t>
   </si>
   <si>
+    <t>Antoine W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r534829761-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -785,6 +866,9 @@
     <t>The hotel is a nice modern and newer facility.   However, the service staff fall far short of expectations.The Front Desk Staff are not welcoming or engaging nor detailed oriented.  The Front Desk Staff are dry and did not smile.  They were more like computers than people, only talked to get required information. We had confirmed a two night stay and were locked out of our room after the first night. I suggest you get to breakfast early before 8am as the food runs out.  There seems to be a daily allocation of food.  Once that allocation of food is gone before 9am, that’s it.  We came after 8am and there were no more eggs or sausage.  I asked the lady over the area were there anymore and she replied, “No more eggs or sausage.”  One reason we chose this hotel was for the “Hot Breakfast” that was supposed to last until 9am.  The hotel was a little more expensive, but we figured with the full breakfast that would balance out.  We lost on that one, we had to purchase breakfast elsewhere.When housekeeping cleaned the room, they did not replace the soiled towels they removed.  They did not leave enough towels to accommodate the two of us.More</t>
   </si>
   <si>
+    <t>576abbyc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r533641656-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -803,6 +887,9 @@
     <t>I have stayed at many LQ hotels over the past 10 years.  This one was the best.  The lighting in the bathroom and throughout the room was more than adequate.  I could actually do my make-up in the bathroom and not look like a clown in daylight!  There was a really cool coffee machine in the lobby so that you could make fancy coffee drinks or hot chocolate any time of the day.  The lobby was beautiful and the staff was friendly and inviting.  The bed was comfortable and the bedding was soft.  It had some sort of hypo-allergenic goose down comfortable.  The air conditioner was super cold and easy to control.  Be aware you have to enter through the same parking lot as the Motel 6.  It is on a one-way street so if you miss the turn you have to circle back for more than a mile.  All the hotels in the area seemed fairly new, but few restaurants surround the area.More</t>
   </si>
   <si>
+    <t>kimberlyna2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r533021618-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -818,6 +905,9 @@
     <t>Great Hotel in a prime activity spot in Dallas. Affordable prices and brand new. Came during the week of the state fair so every hotel around was booked. Tried this out because the prices were decent and the pictures online of the rooms were great. Staff was very welcoming even at 1:00am in the morning when we checked in. Breakfast is meh but doable. This Hotel was newly built so very trendy look and rooms are up to date modern.</t>
   </si>
   <si>
+    <t>richard m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r531969227-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -833,6 +923,9 @@
     <t>Terrible chec in... Henriqeutte Was in a very important personal convesation  over the phone that to do her Job, the breakfast not so good, Was the same 3 day we stay, Room clean, good size, great matress, not liked the pillows, great ac , evrithing worked, over all ok</t>
   </si>
   <si>
+    <t>KayLovett</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r529345207-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -849,6 +942,9 @@
   </si>
   <si>
     <t>September 2017</t>
+  </si>
+  <si>
+    <t>JCT621</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r528719999-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
@@ -1371,43 +1467,47 @@
       <c r="A2" t="n">
         <v>65655</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>164811</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1429,56 +1529,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65655</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>164812</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1500,56 +1604,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65655</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>3525</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1567,56 +1675,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65655</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>15601</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1628,56 +1740,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65655</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>164813</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1695,56 +1811,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65655</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>164814</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1762,56 +1882,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65655</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>164815</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1825,56 +1949,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65655</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>164816</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1896,56 +2024,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="X9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65655</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>164817</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1967,56 +2099,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65655</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>7151</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2038,56 +2174,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65655</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>4206</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2109,56 +2249,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="X12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65655</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>164818</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2180,56 +2324,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="X13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65655</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>164819</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2251,56 +2399,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="X14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Y14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65655</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>94727</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2312,56 +2464,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="X15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65655</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>164820</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2373,56 +2529,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="X16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65655</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>164821</v>
+      </c>
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O17" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2434,56 +2594,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="X17" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="Y17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65655</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>164822</v>
+      </c>
+      <c r="C18" t="s">
+        <v>187</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2505,56 +2669,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="X18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65655</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>164823</v>
+      </c>
+      <c r="C19" t="s">
+        <v>196</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2576,56 +2744,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="X19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65655</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>164824</v>
+      </c>
+      <c r="C20" t="s">
+        <v>205</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -2647,56 +2819,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="X20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="Y20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65655</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>164825</v>
+      </c>
+      <c r="C21" t="s">
+        <v>214</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="J21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2718,56 +2894,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="X21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="Y21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65655</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>164826</v>
+      </c>
+      <c r="C22" t="s">
+        <v>224</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="K22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2789,56 +2969,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="X22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="Y22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65655</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>164827</v>
+      </c>
+      <c r="C23" t="s">
+        <v>234</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="J23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="K23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="L23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2860,56 +3044,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="X23" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="Y23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65655</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>164828</v>
+      </c>
+      <c r="C24" t="s">
+        <v>241</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="J24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="K24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2929,56 +3117,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="X24" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="Y24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65655</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>164829</v>
+      </c>
+      <c r="C25" t="s">
+        <v>249</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="O25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3000,56 +3192,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="X25" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="Y25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65655</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>164830</v>
+      </c>
+      <c r="C26" t="s">
+        <v>257</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="J26" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3071,56 +3267,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="X26" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="Y26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65655</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>164831</v>
+      </c>
+      <c r="C27" t="s">
+        <v>263</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="J27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="K27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="O27" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -3142,56 +3342,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="X27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="Y27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65655</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>164832</v>
+      </c>
+      <c r="C28" t="s">
+        <v>273</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="J28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="K28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="L28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -3213,56 +3417,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="X28" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="Y28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65655</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>164833</v>
+      </c>
+      <c r="C29" t="s">
+        <v>280</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="J29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="K29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="L29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3286,50 +3494,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65655</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>164834</v>
+      </c>
+      <c r="C30" t="s">
+        <v>287</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="J30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="K30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3353,50 +3565,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>65655</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>164835</v>
+      </c>
+      <c r="C31" t="s">
+        <v>293</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="J31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="K31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="O31" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3414,50 +3630,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>65655</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>164836</v>
+      </c>
+      <c r="C32" t="s">
+        <v>299</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="J32" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="K32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3481,50 +3701,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>65655</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>105562</v>
+      </c>
+      <c r="C33" t="s">
+        <v>306</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="J33" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="K33" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3538,7 +3762,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_494.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_494.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="538">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,381 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>anntd</t>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r608440661-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>12132047</t>
+  </si>
+  <si>
+    <t>608440661</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>Hotel was fine although when we arrived, the A/C was not on in our room.  We opened the door expecting some relief from the sweltering heat outside just to find it was 80 degrees in our room!  That was unpleasant but once the A/C was turned on it didn't take too long to cool it down.  Breakfast was fine - typical of the "free breakfast" hotels - some hot foods (eggs, sausages etc) some cold (cereal, yogurt).  Rooms were clean.  Lots of restaurants nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>Hotel was fine although when we arrived, the A/C was not on in our room.  We opened the door expecting some relief from the sweltering heat outside just to find it was 80 degrees in our room!  That was unpleasant but once the A/C was turned on it didn't take too long to cool it down.  Breakfast was fine - typical of the "free breakfast" hotels - some hot foods (eggs, sausages etc) some cold (cereal, yogurt).  Rooms were clean.  Lots of restaurants nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r584561270-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>584561270</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Our Fortress of Solitude . . .</t>
+  </si>
+  <si>
+    <t>We travel through Dallas often because our family lives in Richardson.  It's always been a little challenging sharing a space with them.  This time we decided to book a hotel so we can both have our own space.  This turned out to be a really good decision.  That said, we booked a room at the La Quinta Inn, Richardson.  In short, the hotel is new, tidy, and centrally located.  The rooms are clean and modern.  The workout facility is excellent and has enough floor space for cross-fit activities.  The indoor pool is nice and warm.  Fresh towels are available in both spaces.  Plenty of area to setup work spaces and the wifi is solid.  Breakfast is basic but good.  In summary, we will definitely be staying here for future family visits.  Well played La Quinta :)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded June 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2018</t>
+  </si>
+  <si>
+    <t>We travel through Dallas often because our family lives in Richardson.  It's always been a little challenging sharing a space with them.  This time we decided to book a hotel so we can both have our own space.  This turned out to be a really good decision.  That said, we booked a room at the La Quinta Inn, Richardson.  In short, the hotel is new, tidy, and centrally located.  The rooms are clean and modern.  The workout facility is excellent and has enough floor space for cross-fit activities.  The indoor pool is nice and warm.  Fresh towels are available in both spaces.  Plenty of area to setup work spaces and the wifi is solid.  Breakfast is basic but good.  In summary, we will definitely be staying here for future family visits.  Well played La Quinta :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r605084569-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>605084569</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>Breakfast attend was Awesome today_!!</t>
+  </si>
+  <si>
+    <t>This young lady was such an help I was confused about the waffle maker lol_! She made sure to show me how to use it and what all was out to eat.. Clean environment very friendly and kind person my mom even noticed she helped and elderly couple throw their trash away so sweet we will be bsckMoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>This young lady was such an help I was confused about the waffle maker lol_! She made sure to show me how to use it and what all was out to eat.. Clean environment very friendly and kind person my mom even noticed she helped and elderly couple throw their trash away so sweet we will be bsckMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r600477256-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>600477256</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>Excellent hotel!</t>
+  </si>
+  <si>
+    <t>This hotel is always super clean. Staff is friendly and exceptionally helpful. Anything you need, just ask! They brought out more eggs and sausage as they were shutting down breakfast because we missed it, we came down 5 minutes late. The lobby carpets were being shampooed as we checked out which I thought was great and made me feel good about cleanliness. Pool is sparkling and indoor. Your kids can use the lobby computers for video games if you need a minute to yourself. Pet friendly. Affordable. All around great. I always stay here when we're in Dallas and will continue to do so.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>This hotel is always super clean. Staff is friendly and exceptionally helpful. Anything you need, just ask! They brought out more eggs and sausage as they were shutting down breakfast because we missed it, we came down 5 minutes late. The lobby carpets were being shampooed as we checked out which I thought was great and made me feel good about cleanliness. Pool is sparkling and indoor. Your kids can use the lobby computers for video games if you need a minute to yourself. Pet friendly. Affordable. All around great. I always stay here when we're in Dallas and will continue to do so.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r597198116-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>597198116</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The room was clean and pristine (along with the rest of the hotel I saw). The staff was friendly and welcoming. The bed was extremely comfortable and soft (my doggo was a fan), and the AC was frigid (important in my book to have a cold AC--all of the temperatures are adjustable to your comfort level though). They had a good selection of food at their snack market. The location is good with one minor flaw of it being slightly confusing to get to the hotel if you aren't familiar with Dallas. The value was also great-- I paid 104 for one night.I will be staying here again if I pass through Dallas again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded July 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2018</t>
+  </si>
+  <si>
+    <t>The room was clean and pristine (along with the rest of the hotel I saw). The staff was friendly and welcoming. The bed was extremely comfortable and soft (my doggo was a fan), and the AC was frigid (important in my book to have a cold AC--all of the temperatures are adjustable to your comfort level though). They had a good selection of food at their snack market. The location is good with one minor flaw of it being slightly confusing to get to the hotel if you aren't familiar with Dallas. The value was also great-- I paid 104 for one night.I will be staying here again if I pass through Dallas again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r595461644-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>595461644</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Great Staff!</t>
+  </si>
+  <si>
+    <t>We were on a business trip to North Dallas, and unfortunately had a problem with our reservations at another hotel. We came to this La Quinta extremely late in the evening, and was  treated absolutely wonderful!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded July 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2018</t>
+  </si>
+  <si>
+    <t>We were on a business trip to North Dallas, and unfortunately had a problem with our reservations at another hotel. We came to this La Quinta extremely late in the evening, and was  treated absolutely wonderful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r592713639-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>592713639</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>Best stay ever</t>
+  </si>
+  <si>
+    <t>Best stay ever for being back in my home state of Texas. The children loved the indoor pool. I loved the full breakfast every morning. The front desk Bianca very professional, helpful, greets guest with a smile!MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded July 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2018</t>
+  </si>
+  <si>
+    <t>Best stay ever for being back in my home state of Texas. The children loved the indoor pool. I loved the full breakfast every morning. The front desk Bianca very professional, helpful, greets guest with a smile!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r592267126-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>592267126</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Super clean, great service, good price - but the color? ouch</t>
+  </si>
+  <si>
+    <t>25% less than Holiday Inn for a quiet spotless room, and a great night's sleep. Service was great and the staff are helpful.The breakfast is standard. We recommend you bring a ceramic coffee mug when you travel in Texas; Texans don't seem to know that putting a styrofoam cup in a microwave ain't exactly healthy.Our one real gripe: who decorated this place? Like the Holiday Inn we tried in McKinney, the dominant color is cement-gray. It is very institutional. If you work in a government office, a parking garage, or have done prison time, you should feel right at home.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Riad A, Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded July 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2018</t>
+  </si>
+  <si>
+    <t>25% less than Holiday Inn for a quiet spotless room, and a great night's sleep. Service was great and the staff are helpful.The breakfast is standard. We recommend you bring a ceramic coffee mug when you travel in Texas; Texans don't seem to know that putting a styrofoam cup in a microwave ain't exactly healthy.Our one real gripe: who decorated this place? Like the Holiday Inn we tried in McKinney, the dominant color is cement-gray. It is very institutional. If you work in a government office, a parking garage, or have done prison time, you should feel right at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r591815782-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>591815782</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>willing to adjust rate due to bereavement</t>
+  </si>
+  <si>
+    <t>Even though this hotel had not heard of the program offered by the funeral home, they adjusted my rate after I'd already booked.  Nice, clean rooms, great selection for breakfast, prompt service. Tricky to find, but convenient access.MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded July 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2018</t>
+  </si>
+  <si>
+    <t>Even though this hotel had not heard of the program offered by the funeral home, they adjusted my rate after I'd already booked.  Nice, clean rooms, great selection for breakfast, prompt service. Tricky to find, but convenient access.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r589786542-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>589786542</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>New hotel poor design for pets</t>
+  </si>
+  <si>
+    <t>This is a new beautiful hotel. Love the mural at the front desk. The staff is great especially Jose. Go Cubs. The A/C works great. There is a fan in the bathroom to get rid of the humidity after you shower.
+Great large clean rooms. We like the tile by the entry and the bathroom and carpeting by the beds. Great linens. Lots of outlets to recharge our devices.
+If you don't have a pet definitely stay here.
+The design is really lacking for pets. All pets must go through the lobby to get to the pet area. The first floor rooms are on the opposite side of the hotel from the pet area.
+there are meeting rooms next to the pet area. We stay at La Quinta's nationwide and have never had a not pet friendly experience until this hotel. Our dog is why we stay at La Quinta's. The pool water was murky so we didn't swim. The sink had no stopper to hold water. Plumbing clunks when you shut off the water. The luggage racks are small and difficult to use. Parking is not convenient. Children cannot reach the toilet paper holder. Breakfast was ok.
+Recommend they put a gate in the fence on the other side and level the grassy area for pets access. Our dog is older and the pet area is just too far away for her.
+This hotel was not designed to be...This is a new beautiful hotel. Love the mural at the front desk. The staff is great especially Jose. Go Cubs. The A/C works great. There is a fan in the bathroom to get rid of the humidity after you shower.Great large clean rooms. We like the tile by the entry and the bathroom and carpeting by the beds. Great linens. Lots of outlets to recharge our devices.If you don't have a pet definitely stay here.The design is really lacking for pets. All pets must go through the lobby to get to the pet area. The first floor rooms are on the opposite side of the hotel from the pet area.there are meeting rooms next to the pet area. We stay at La Quinta's nationwide and have never had a not pet friendly experience until this hotel. Our dog is why we stay at La Quinta's. The pool water was murky so we didn't swim. The sink had no stopper to hold water. Plumbing clunks when you shut off the water. The luggage racks are small and difficult to use. Parking is not convenient. Children cannot reach the toilet paper holder. Breakfast was ok.Recommend they put a gate in the fence on the other side and level the grassy area for pets access. Our dog is older and the pet area is just too far away for her.This hotel was not designed to be pet friendly.  Which is a shame since that is what La Quinta is know for.We will not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded June 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2018</t>
+  </si>
+  <si>
+    <t>This is a new beautiful hotel. Love the mural at the front desk. The staff is great especially Jose. Go Cubs. The A/C works great. There is a fan in the bathroom to get rid of the humidity after you shower.
+Great large clean rooms. We like the tile by the entry and the bathroom and carpeting by the beds. Great linens. Lots of outlets to recharge our devices.
+If you don't have a pet definitely stay here.
+The design is really lacking for pets. All pets must go through the lobby to get to the pet area. The first floor rooms are on the opposite side of the hotel from the pet area.
+there are meeting rooms next to the pet area. We stay at La Quinta's nationwide and have never had a not pet friendly experience until this hotel. Our dog is why we stay at La Quinta's. The pool water was murky so we didn't swim. The sink had no stopper to hold water. Plumbing clunks when you shut off the water. The luggage racks are small and difficult to use. Parking is not convenient. Children cannot reach the toilet paper holder. Breakfast was ok.
+Recommend they put a gate in the fence on the other side and level the grassy area for pets access. Our dog is older and the pet area is just too far away for her.
+This hotel was not designed to be...This is a new beautiful hotel. Love the mural at the front desk. The staff is great especially Jose. Go Cubs. The A/C works great. There is a fan in the bathroom to get rid of the humidity after you shower.Great large clean rooms. We like the tile by the entry and the bathroom and carpeting by the beds. Great linens. Lots of outlets to recharge our devices.If you don't have a pet definitely stay here.The design is really lacking for pets. All pets must go through the lobby to get to the pet area. The first floor rooms are on the opposite side of the hotel from the pet area.there are meeting rooms next to the pet area. We stay at La Quinta's nationwide and have never had a not pet friendly experience until this hotel. Our dog is why we stay at La Quinta's. The pool water was murky so we didn't swim. The sink had no stopper to hold water. Plumbing clunks when you shut off the water. The luggage racks are small and difficult to use. Parking is not convenient. Children cannot reach the toilet paper holder. Breakfast was ok.Recommend they put a gate in the fence on the other side and level the grassy area for pets access. Our dog is older and the pet area is just too far away for her.This hotel was not designed to be pet friendly.  Which is a shame since that is what La Quinta is know for.We will not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r588386513-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>588386513</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Great Rooms, Perfect Stay!</t>
+  </si>
+  <si>
+    <t>We stayed at the La Quinta over the weekend and really enjoyed our stay. The staff were friendly upon check in and check out. I loved that the front desk person acknowledged me as soon as I walked in the door and let me know she'd be with me as soon as she could. We stayed on the third floor on and end room. The room was spacious. We traveled with two year old twins, so it was nice to have floor space to set up their beds on. The bed was really comfortable, although I wasn't a huge fan of the pillows. Breakfast was great. We didn't use the pool, but we stepped inside. The room was pretty steamy and the water looked a little cloudy, but there were a lot of people using it, so it must have been pleasant! My only complaint is that it was a little hard to find from the road. Bigger signage might be helpful for guests. Overall, we were pleased with our stay and will definitely stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at the La Quinta over the weekend and really enjoyed our stay. The staff were friendly upon check in and check out. I loved that the front desk person acknowledged me as soon as I walked in the door and let me know she'd be with me as soon as she could. We stayed on the third floor on and end room. The room was spacious. We traveled with two year old twins, so it was nice to have floor space to set up their beds on. The bed was really comfortable, although I wasn't a huge fan of the pillows. Breakfast was great. We didn't use the pool, but we stepped inside. The room was pretty steamy and the water looked a little cloudy, but there were a lot of people using it, so it must have been pleasant! My only complaint is that it was a little hard to find from the road. Bigger signage might be helpful for guests. Overall, we were pleased with our stay and will definitely stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r588734280-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>588734280</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>This is a VERY nice La Quinta.  Affordable hotel, good breakfast selections. There is an indoor pool.  We had a nice, clean room with a comfortable bed!  The hotel is set back, behind a couple of other hotels, so you really have to look for the sign at the driveway, but it is not hard to find.MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>This is a VERY nice La Quinta.  Affordable hotel, good breakfast selections. There is an indoor pool.  We had a nice, clean room with a comfortable bed!  The hotel is set back, behind a couple of other hotels, so you really have to look for the sign at the driveway, but it is not hard to find.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r588220373-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>588220373</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>VERY NICE</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new and I was really comfortable and felt at ease with this stay. After traveling for two days and compared to a few other hotels that we stayed, this one was by far the best. I wanted to stay another night just to rest comfortably, but we had to continue to our next destination.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new and I was really comfortable and felt at ease with this stay. After traveling for two days and compared to a few other hotels that we stayed, this one was by far the best. I wanted to stay another night just to rest comfortably, but we had to continue to our next destination.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r587542575-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>587542575</t>
   </si>
   <si>
     <t>06/14/2018</t>
   </si>
   <si>
+    <t>Good place to stay, I recommend</t>
+  </si>
+  <si>
+    <t>Great location, really pleasant and clean rooms, but the thing that makes this such a good place to stay are the staff. All of the people are helpful and generous with their time and advice. The room has fridge and microwave which other 4 star hotel don't have. Everything is fine just the smell of detergent is high when you are in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Great location, really pleasant and clean rooms, but the thing that makes this such a good place to stay are the staff. All of the people are helpful and generous with their time and advice. The room has fridge and microwave which other 4 star hotel don't have. Everything is fine just the smell of detergent is high when you are in the room.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r586783090-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>12132047</t>
-  </si>
-  <si>
     <t>586783090</t>
   </si>
   <si>
@@ -174,150 +534,90 @@
     <t>We loved this La Quinta Inn and Suites from the warm greeting at the front desk to the clean room and bathroom. It was very spacious with nice decor. Toiletries seemed to be upgraded. The bed was comfortable with pillow choices. Breakfast area was clean and well stocked. Wish English muffins were an option.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded 2 days ago</t>
-  </si>
-  <si>
-    <t>Responded 2 days ago</t>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2018</t>
   </si>
   <si>
     <t>We loved this La Quinta Inn and Suites from the warm greeting at the front desk to the clean room and bathroom. It was very spacious with nice decor. Toiletries seemed to be upgraded. The bed was comfortable with pillow choices. Breakfast area was clean and well stocked. Wish English muffins were an option.More</t>
   </si>
   <si>
-    <t>Marlenalovestotravel</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r578409084-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>578409084</t>
-  </si>
-  <si>
-    <t>05/06/2018</t>
-  </si>
-  <si>
-    <t>Beautiful and Quiet</t>
-  </si>
-  <si>
-    <t>This hotel sits behind a couple of other hotels, which is perfect. I never heard the I-75 traffic. Because it was so quiet, I had a wonderful night's sleep. The room was also large and beautiful.  The shower floor had a small black hair on it near the back wall and I don't have black hair. I used to work in hotels and have always been observant of such things for inspection. The breakfast had a great variety of choices to make and delicious...except the oatmeal, which was overdone.  Overall, however, I will definitely return to this place if I'm in that area again. It was fantastic.MoreShow less</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r585289220-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>585289220</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Much dirtier than most new hotels</t>
+  </si>
+  <si>
+    <t>The accommodations are on par for most new La Quinta hotels, which are a very good value. However, the cleanliness of this particular location is very lacking. From the elevators not being cleaned during my stay (3 nights) to the hallways and lobby floors. It appears as though there is a bare minimum amount of cleaning performed. In my room there was some sort of lotion or "fluid" smeared on the front of the dresser. There were "spots" on the bathroom floor in front of the toilet. I don't need to tell anyone what those were. My room smelled like a burrito had just been microwaved - literally. For such a new property, it really was not a comfortable stay because of the perceived lack of cleaning.MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded June 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2018</t>
+  </si>
+  <si>
+    <t>The accommodations are on par for most new La Quinta hotels, which are a very good value. However, the cleanliness of this particular location is very lacking. From the elevators not being cleaned during my stay (3 nights) to the hallways and lobby floors. It appears as though there is a bare minimum amount of cleaning performed. In my room there was some sort of lotion or "fluid" smeared on the front of the dresser. There were "spots" on the bathroom floor in front of the toilet. I don't need to tell anyone what those were. My room smelled like a burrito had just been microwaved - literally. For such a new property, it really was not a comfortable stay because of the perceived lack of cleaning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r584922144-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>584922144</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>New but Dirty</t>
+  </si>
+  <si>
+    <t>I stay in LaQuinta hotels very frequently and almost exclusively.The carpets in the hallways appeared as if they were not vacuumed regularly.I had to switch rooms due to a large number of hairs visible on the bathroom floor. (The fellow working the front desk provided a new room immediately. Thank you.)There was a broom sitting outside another room on my floor? The main elevator hall tile floor always seemed to have dried residue on it, as well as the elevator floors. Maybe from persons using the pool?My business associate had something on his dresser? (see photo) He also had hairs on his bathroom floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>I stay in LaQuinta hotels very frequently and almost exclusively.The carpets in the hallways appeared as if they were not vacuumed regularly.I had to switch rooms due to a large number of hairs visible on the bathroom floor. (The fellow working the front desk provided a new room immediately. Thank you.)There was a broom sitting outside another room on my floor? The main elevator hall tile floor always seemed to have dried residue on it, as well as the elevator floors. Maybe from persons using the pool?My business associate had something on his dresser? (see photo) He also had hairs on his bathroom floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r584449008-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>584449008</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>This a new Inn that is a little hard to find if you don't know that it is behind a motel 6. There was still the new small to it and we were pleased that we were accommodated with a first floor room due to our furry companions being with us. The room was clean and the check in went seamless. Our room was quiet and the pool was ok, although the room was very steamy. The breakfast was ok, but when the attendant was asked for some more forks, she replied,"No more, no more today." Seems like she was programmed to say this in case there was something that was missing after 8AM. There was also a small ant that had crawled inside the cup that held the pancake syrup. This may need to be addressed sooner than later. Outside these minor glitches, we may return again.MoreShow less</t>
   </si>
   <si>
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded May 7, 2018</t>
-  </si>
-  <si>
-    <t>Responded May 7, 2018</t>
-  </si>
-  <si>
-    <t>This hotel sits behind a couple of other hotels, which is perfect. I never heard the I-75 traffic. Because it was so quiet, I had a wonderful night's sleep. The room was also large and beautiful.  The shower floor had a small black hair on it near the back wall and I don't have black hair. I used to work in hotels and have always been observant of such things for inspection. The breakfast had a great variety of choices to make and delicious...except the oatmeal, which was overdone.  Overall, however, I will definitely return to this place if I'm in that area again. It was fantastic.More</t>
-  </si>
-  <si>
-    <t>Joseph G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r585289220-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>585289220</t>
-  </si>
-  <si>
-    <t>06/05/2018</t>
-  </si>
-  <si>
-    <t>Much dirtier than most new hotels</t>
-  </si>
-  <si>
-    <t>The accommodations are on par for most new La Quinta hotels, which are a very good value. However, the cleanliness of this particular location is very lacking. From the elevators not being cleaned during my stay (3 nights) to the hallways and lobby floors. It appears as though there is a bare minimum amount of cleaning performed. In my room there was some sort of lotion or "fluid" smeared on the front of the dresser. There were "spots" on the bathroom floor in front of the toilet. I don't need to tell anyone what those were. My room smelled like a burrito had just been microwaved - literally. For such a new property, it really was not a comfortable stay because of the perceived lack of cleaning.MoreShow less</t>
-  </si>
-  <si>
-    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
-  </si>
-  <si>
-    <t>The accommodations are on par for most new La Quinta hotels, which are a very good value. However, the cleanliness of this particular location is very lacking. From the elevators not being cleaned during my stay (3 nights) to the hallways and lobby floors. It appears as though there is a bare minimum amount of cleaning performed. In my room there was some sort of lotion or "fluid" smeared on the front of the dresser. There were "spots" on the bathroom floor in front of the toilet. I don't need to tell anyone what those were. My room smelled like a burrito had just been microwaved - literally. For such a new property, it really was not a comfortable stay because of the perceived lack of cleaning.More</t>
-  </si>
-  <si>
-    <t>Michael J</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r584922144-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>584922144</t>
-  </si>
-  <si>
-    <t>06/03/2018</t>
-  </si>
-  <si>
-    <t>New but Dirty</t>
-  </si>
-  <si>
-    <t>I stay in LaQuinta hotels very frequently and almost exclusively.The carpets in the hallways appeared as if they were not vacuumed regularly.I had to switch rooms due to a large number of hairs visible on the bathroom floor. (The fellow working the front desk provided a new room immediately. Thank you.)There was a broom sitting outside another room on my floor? The main elevator hall tile floor always seemed to have dried residue on it, as well as the elevator floors. Maybe from persons using the pool?My business associate had something on his dresser? (see photo) He also had hairs on his bathroom floor.MoreShow less</t>
-  </si>
-  <si>
-    <t>I stay in LaQuinta hotels very frequently and almost exclusively.The carpets in the hallways appeared as if they were not vacuumed regularly.I had to switch rooms due to a large number of hairs visible on the bathroom floor. (The fellow working the front desk provided a new room immediately. Thank you.)There was a broom sitting outside another room on my floor? The main elevator hall tile floor always seemed to have dried residue on it, as well as the elevator floors. Maybe from persons using the pool?My business associate had something on his dresser? (see photo) He also had hairs on his bathroom floor.More</t>
-  </si>
-  <si>
-    <t>huntergparks</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r584561270-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>584561270</t>
-  </si>
-  <si>
-    <t>06/02/2018</t>
-  </si>
-  <si>
-    <t>Our Fortress of Solitude . . .</t>
-  </si>
-  <si>
-    <t>We travel through Dallas often because our family lives in Richardson.  It's always been a little challenging sharing a space with them.  This time we decided to book a hotel so we can both have our own space.  This turned out to be a really good decision.  That said, we booked a room at the La Quinta Inn, Richardson.  In short, the hotel is new, tidy, and centrally located.  The rooms are clean and modern.  The workout facility is excellent and has enough floor space for cross-fit activities.  The indoor pool is nice and warm.  Fresh towels are available in both spaces.  Plenty of area to setup work spaces and the wifi is solid.  Breakfast is basic but good.  In summary, we will definitely be staying here for future family visits.  Well played La Quinta :)MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>We travel through Dallas often because our family lives in Richardson.  It's always been a little challenging sharing a space with them.  This time we decided to book a hotel so we can both have our own space.  This turned out to be a really good decision.  That said, we booked a room at the La Quinta Inn, Richardson.  In short, the hotel is new, tidy, and centrally located.  The rooms are clean and modern.  The workout facility is excellent and has enough floor space for cross-fit activities.  The indoor pool is nice and warm.  Fresh towels are available in both spaces.  Plenty of area to setup work spaces and the wifi is solid.  Breakfast is basic but good.  In summary, we will definitely be staying here for future family visits.  Well played La Quinta :)More</t>
-  </si>
-  <si>
-    <t>Misterbunns</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r584449008-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>584449008</t>
-  </si>
-  <si>
-    <t>06/01/2018</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>This a new Inn that is a little hard to find if you don't know that it is behind a motel 6. There was still the new small to it and we were pleased that we were accommodated with a first floor room due to our furry companions being with us. The room was clean and the check in went seamless. Our room was quiet and the pool was ok, although the room was very steamy. The breakfast was ok, but when the attendant was asked for some more forks, she replied,"No more, no more today." Seems like she was programmed to say this in case there was something that was missing after 8AM. There was also a small ant that had crawled inside the cup that held the pancake syrup. This may need to be addressed sooner than later. Outside these minor glitches, we may return again.MoreShow less</t>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2018</t>
   </si>
   <si>
     <t>This a new Inn that is a little hard to find if you don't know that it is behind a motel 6. There was still the new small to it and we were pleased that we were accommodated with a first floor room due to our furry companions being with us. The room was clean and the check in went seamless. Our room was quiet and the pool was ok, although the room was very steamy. The breakfast was ok, but when the attendant was asked for some more forks, she replied,"No more, no more today." Seems like she was programmed to say this in case there was something that was missing after 8AM. There was also a small ant that had crawled inside the cup that held the pancake syrup. This may need to be addressed sooner than later. Outside these minor glitches, we may return again.More</t>
   </si>
   <si>
-    <t>Anita767</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r581067655-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -336,18 +636,15 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded May 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2018</t>
   </si>
   <si>
     <t>There are two individuals that literally wowed me at this hotel. They are Cornell Watson and Kevin Robinson. I stayed at this hotel in March 2018. I told them I was shopping around for a new hotel chain for frequent business travel. They went out of their way to answer all of my questions and even offered me some cold water. Loved the hotel. Texas Roadhouse is right newt door so you don't have to drive in heavy traffic to find a place to eat. The decor is refreshingly modern and very clean. I would highly recommend this hotel. Cornell and Kevin were amazing!More</t>
   </si>
   <si>
-    <t>Roberto C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r580962161-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -366,10 +663,13 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2018</t>
+  </si>
+  <si>
     <t>Great place to stay, even if you have to drive past other places, this is the one to stay at.  Professional &amp; friendly staff, excellent Breakfast as staff who maintain everything well stocked and available.More</t>
-  </si>
-  <si>
-    <t>U1632LGmichaelk</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r579445902-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
@@ -391,10 +691,10 @@
 Finally, OUR DOOR WOULD NOT CLOSE...This is a brand-new LaQuinta, and a very contemporary-decorated place. I asked the lady @ front desk if I could move a lobby chair 9 feet, to use it @ the ‘business center’ computers.  She said ‘sure”, and I moved it over, sat down and worked on the computer for about 1.25 hrs.  Then the Owner/Franchisee approached me &amp; abruptly told me I can not use the lobby chair @ the business center computer area!!  He (Ray) told me it is not allowed. I told him that his employee approved the use of the chair. He said I was wrong, &amp; that I needed to get off the computer. Ray then told me that it is corporate policy that no chairs can be used at the business center because THEY DON’T WANT CLIENTS USING THE COMPUTERS FOR ‘long periods of time” ??!!!!!Other items to note: I stayed 5/8/18 &amp; 5/9/18...In room 304, the glass shower door handles were very loose, and I lost my footing when I grabbed the loose chrome ‘handles’ (Where you could hang your shower towels).The fridge made a constant loud sound, like there was water running in the wall behind the mini-fridge, which was NEVER fixed, after asking each day to get it fixed.  The coffee dispenser in the lobby breakfast area was broken BOTH days, and all Mgmnt did was put an out-of-order sign on it.Finally, OUR DOOR WOULD NOT CLOSE ALL THE WAY!!  IT WOULD NOT CLOSE, &amp; IT COULD NOT BE LOCKED, &amp; management did not fix it during our 2 nights there!!I love my LQ, am an ELITE member, and stay @ LQ 8-10 times a year.  This type of service is truly an anomaly, and these deficiencies in service and support lies fully @ the feet of Ray, the owner/Franchisee.  I gave him 2 different opportunities to apologize, or correct the deficiencies, and he chose to do nothing!Please be VERY WARY of purposefully choosing to stay @ this location... there’s a couple of very nice LQ properties a bit north of here, &amp; with more competitive rates too!Steer clear it at all possible!!MoreShow less</t>
   </si>
   <si>
-    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2018</t>
   </si>
   <si>
     <t>This is a brand-new LaQuinta, and a very contemporary-decorated place. I asked the lady @ front desk if I could move a lobby chair 9 feet, to use it @ the ‘business center’ computers.  She said ‘sure”, and I moved it over, sat down and worked on the computer for about 1.25 hrs.  Then the Owner/Franchisee approached me &amp; abruptly told me I can not use the lobby chair @ the business center computer area!!  He (Ray) told me it is not allowed. I told him that his employee approved the use of the chair. He said I was wrong, &amp; that I needed to get off the computer. Ray then told me that it is corporate policy that no chairs can be used at the business center because THEY DON’T WANT CLIENTS USING THE COMPUTERS FOR ‘long periods of time” ??!!!!!
@@ -404,9 +704,6 @@
 Finally, OUR DOOR WOULD NOT CLOSE...This is a brand-new LaQuinta, and a very contemporary-decorated place. I asked the lady @ front desk if I could move a lobby chair 9 feet, to use it @ the ‘business center’ computers.  She said ‘sure”, and I moved it over, sat down and worked on the computer for about 1.25 hrs.  Then the Owner/Franchisee approached me &amp; abruptly told me I can not use the lobby chair @ the business center computer area!!  He (Ray) told me it is not allowed. I told him that his employee approved the use of the chair. He said I was wrong, &amp; that I needed to get off the computer. Ray then told me that it is corporate policy that no chairs can be used at the business center because THEY DON’T WANT CLIENTS USING THE COMPUTERS FOR ‘long periods of time” ??!!!!!Other items to note: I stayed 5/8/18 &amp; 5/9/18...In room 304, the glass shower door handles were very loose, and I lost my footing when I grabbed the loose chrome ‘handles’ (Where you could hang your shower towels).The fridge made a constant loud sound, like there was water running in the wall behind the mini-fridge, which was NEVER fixed, after asking each day to get it fixed.  The coffee dispenser in the lobby breakfast area was broken BOTH days, and all Mgmnt did was put an out-of-order sign on it.Finally, OUR DOOR WOULD NOT CLOSE ALL THE WAY!!  IT WOULD NOT CLOSE, &amp; IT COULD NOT BE LOCKED, &amp; management did not fix it during our 2 nights there!!I love my LQ, am an ELITE member, and stay @ LQ 8-10 times a year.  This type of service is truly an anomaly, and these deficiencies in service and support lies fully @ the feet of Ray, the owner/Franchisee.  I gave him 2 different opportunities to apologize, or correct the deficiencies, and he chose to do nothing!Please be VERY WARY of purposefully choosing to stay @ this location... there’s a couple of very nice LQ properties a bit north of here, &amp; with more competitive rates too!Steer clear it at all possible!!More</t>
   </si>
   <si>
-    <t>James B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r578636829-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -431,7 +728,28 @@
     <t>This is a fairly new La Quinta which was located in a convenient location for my needs.  The property was nice, the staff was friendly and my room was great.  I've stayed here twice and would stay again.  More</t>
   </si>
   <si>
-    <t>Paul B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r578409084-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>578409084</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>Beautiful and Quiet</t>
+  </si>
+  <si>
+    <t>This hotel sits behind a couple of other hotels, which is perfect. I never heard the I-75 traffic. Because it was so quiet, I had a wonderful night's sleep. The room was also large and beautiful.  The shower floor had a small black hair on it near the back wall and I don't have black hair. I used to work in hotels and have always been observant of such things for inspection. The breakfast had a great variety of choices to make and delicious...except the oatmeal, which was overdone.  Overall, however, I will definitely return to this place if I'm in that area again. It was fantastic.MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>This hotel sits behind a couple of other hotels, which is perfect. I never heard the I-75 traffic. Because it was so quiet, I had a wonderful night's sleep. The room was also large and beautiful.  The shower floor had a small black hair on it near the back wall and I don't have black hair. I used to work in hotels and have always been observant of such things for inspection. The breakfast had a great variety of choices to make and delicious...except the oatmeal, which was overdone.  Overall, however, I will definitely return to this place if I'm in that area again. It was fantastic.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r577786578-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
@@ -458,9 +776,6 @@
     <t>This is a very nice new hotel. Located where two main highways intersect. Easy access to downtown as well as all areas east and west of North Dallas.    Good value. Highly recommend this hotel. Very clean. Great staff!More</t>
   </si>
   <si>
-    <t>ellenmI4943NX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r577003187-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -485,9 +800,6 @@
     <t>The beds were very comfortable, staff very friendly, rooms were clean,  good breakfast, lots of varieties to choose from, with the added breakfast, the motel was very reasonable in price.  We had a doctors appointment and the motel was conveniently close by.More</t>
   </si>
   <si>
-    <t>82normaf</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r575555188-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -512,9 +824,6 @@
     <t>Hotel Cleanliness was good, customer service on key, breakfast was great, location was perfect....just a bit too noisy late night and mid afternoon. Thank you Bianca/Blanca and other staff members for your welcoming service.More</t>
   </si>
   <si>
-    <t>Nicole Y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r570581274-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -539,9 +848,6 @@
     <t>We happen to stayed here because we wanted to be near everywhere. This location is great. It’s quiet and have no problem with the traffic noise. Slept well and so did the kids. The room were great and very very clean. The staffs were great. I called for more sheets and blankets and they were pretty fast to get it. I would definitely come back and stay at this hotel again! :)More</t>
   </si>
   <si>
-    <t>Erlinda S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r568918032-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -566,9 +872,6 @@
     <t>Hotel was great! We enjoyed our stay. Room was awesome, very nice. Loved the bathroom! Very comfortable bed. Staff was friendly. Pool was nice. Water was a bit cold, but we enjoyed it. Breakfast was good. Overall it was a great hotel pick! We would stay here again!More</t>
   </si>
   <si>
-    <t>03nik</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r568774432-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -587,9 +890,6 @@
     <t>The location was great. Near by the galleria mall, In n Out burger just down the street...we been staying this area everytime we come visit dallas. Plus this place is still new so the rooms smell great and very clean. Staff were very helpful. Breakfast was good too!More</t>
   </si>
   <si>
-    <t>D2025HWandrewl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r568008664-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -614,9 +914,6 @@
     <t>Is a new La Quinta.  Good location.   Staff was welcoming.   Plenty of breakfast sitting space.   Nice rooms.   Even anti-bacterial TV remote control.  Breakast good too.  Parking well-lighted.  Good for families.More</t>
   </si>
   <si>
-    <t>richardpV5685CN</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r567131003-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -641,9 +938,6 @@
     <t>My husband had a business trip to the Dallas /Richardson area so my daughters and I tagged along. We’ve stayed in La Quintas before but were really surprised at this location. The hotel was clean , the room smelled fresh and clean, the staff was friendly and helpful,the pool was indoors and warm, and the breakfast was good. We were very happy with our stay and the only thing we had issue with was the size of the parking  lot. It was hard to find a spot close up but if you couldn’t park close the lot was well lit. But beyond that one inconvenience our stay was very enjoyable.More</t>
   </si>
   <si>
-    <t>987kendallw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r566962080-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -668,9 +962,6 @@
     <t>The hotel itself is very nice and new. The pool looked nice and breakfast was nice. I noticed the hallway was abnormally dirty but my room was very sleek and nice and clean. I did worry about my car getting broken into due to neighborhood surrounding the hotel. The area is also very busy with traffic which made grabbing dinner after a day of meetings challenging. MapQuest also did not take me to the hotel. Luckily I noticed the sign and found it. Kind of hidden together with three hotels sharing the same parking lot.More</t>
   </si>
   <si>
-    <t>Carren D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r565601990-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -686,9 +977,6 @@
     <t>This hotel was about 40 minutes from the airport.  The design and furnishings were up to date and looked new.  The hotel was clean and comfortable.  The clerks were pleasant and helpful. I would recommend this hotel to others.  MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded March 11, 2018</t>
   </si>
   <si>
@@ -698,7 +986,235 @@
     <t>This hotel was about 40 minutes from the airport.  The design and furnishings were up to date and looked new.  The hotel was clean and comfortable.  The clerks were pleasant and helpful. I would recommend this hotel to others.  More</t>
   </si>
   <si>
-    <t>rajeshj2018</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r565965048-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>565965048</t>
+  </si>
+  <si>
+    <t>Very enjoyable stay</t>
+  </si>
+  <si>
+    <t>Pros:  Hotel is very clean and quite.  Staff is super friendly and accommodating.  Will definitely stay here again if we are in Richardson.  Close to shopping and restaurants.  Ample parking that is wide enough for larger vehicles.      Cons:  Pool is small.  Breakfast runs out quickly if they are full.MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded March 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2018</t>
+  </si>
+  <si>
+    <t>Pros:  Hotel is very clean and quite.  Staff is super friendly and accommodating.  Will definitely stay here again if we are in Richardson.  Close to shopping and restaurants.  Ample parking that is wide enough for larger vehicles.      Cons:  Pool is small.  Breakfast runs out quickly if they are full.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r563818758-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>563818758</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>Pleasant Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new and everything was quite pleasant. The room was nice and clean and the breakfast was good and included a variety of beverages and food items for guests to enjoy.   I would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded March 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new and everything was quite pleasant. The room was nice and clean and the breakfast was good and included a variety of beverages and food items for guests to enjoy.   I would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r562423584-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>562423584</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>Very new and clean hotel.</t>
+  </si>
+  <si>
+    <t>For not being in Dallas and off season, the price was a little high. Decent selection of food with hot eggs and bacon. Coffee and hot chocolate available 24 hours. Parking was adequate. Area was adjacent to many hotels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r559576796-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>559576796</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>Great experience! Breakfast. Clean, pretty, comfortable. Safe. Part of a cluster of hotels.</t>
+  </si>
+  <si>
+    <t>Great place. Come on don’t make me type so much! I think this is a great deal and nicely located. It is difficult to just say over and over again that this is an excellent Barbin for a comfortable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded February 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2018</t>
+  </si>
+  <si>
+    <t>Great place. Come on don’t make me type so much! I think this is a great deal and nicely located. It is difficult to just say over and over again that this is an excellent Barbin for a comfortable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r557852630-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>557852630</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Great place for the price.  The walls are very thin so you can hear your neighbor - but for the price, it's a great deal.  New and well kept.  You can walk to the nearby hotel that offers a food and drinks   Parking is well secure.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Great place for the price.  The walls are very thin so you can hear your neighbor - but for the price, it's a great deal.  New and well kept.  You can walk to the nearby hotel that offers a food and drinks   Parking is well secure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r557477982-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>557477982</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Lovely Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is only 4 months old and it a great place to stay for business or pleasure.  Spacious room, great hot breakfast and indoor/outdoor pool/fitness room.  Convenient location.  Will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is only 4 months old and it a great place to stay for business or pleasure.  Spacious room, great hot breakfast and indoor/outdoor pool/fitness room.  Convenient location.  Will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r557313858-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>557313858</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here for the weekend. Very nice hotel, still had the new smell. Staff was very helpful and the breakfast was good. Very good amenities for the price. Will stay here again!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2018</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here for the weekend. Very nice hotel, still had the new smell. Staff was very helpful and the breakfast was good. Very good amenities for the price. Will stay here again!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r556646015-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>556646015</t>
+  </si>
+  <si>
+    <t>01/27/2018</t>
+  </si>
+  <si>
+    <t>Best hotel in the area in this price range</t>
+  </si>
+  <si>
+    <t>Staff is genuinely friendly and hotel is clean top to bottom, practically new. Breakfast was awesome and despite lots of traffic remained adequately stocked. I’d go back just for that and the Nescafé Alegria coffee machine!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded January 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2018</t>
+  </si>
+  <si>
+    <t>Staff is genuinely friendly and hotel is clean top to bottom, practically new. Breakfast was awesome and despite lots of traffic remained adequately stocked. I’d go back just for that and the Nescafé Alegria coffee machine!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r555724036-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>555724036</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Clea, Comfortable Hotel</t>
+  </si>
+  <si>
+    <t>We really enjpyed our stay.  I especially loved that this new facility is entirely non-smoking and smells clean!  The executive suite guest room was comfortable and well-appointed.  The staff were very welcoming and helpful.  We will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>We really enjpyed our stay.  I especially loved that this new facility is entirely non-smoking and smells clean!  The executive suite guest room was comfortable and well-appointed.  The staff were very welcoming and helpful.  We will stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r555219113-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>555219113</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Will stay again!</t>
+  </si>
+  <si>
+    <t>Very friendly and personable staff. Loved the cappacino machine...and they kept it on all the time! The location was central to what we did, took a little bit to find it but GPS on our phone helped a bunch.MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Very friendly and personable staff. Loved the cappacino machine...and they kept it on all the time! The location was central to what we did, took a little bit to find it but GPS on our phone helped a bunch.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r552332171-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
@@ -716,21 +1232,9 @@
     <t>We really enjoyed our stay. Everything was perfect. Clean rooms with new beds. Hot breakfast with variety of items to choose from. Really like their coffee machine with different flavors which is complementary. Beautiful lobby to enjoy the breakfast. Will definitely stay in future.MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded January 23, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 23, 2018</t>
-  </si>
-  <si>
     <t>We really enjoyed our stay. Everything was perfect. Clean rooms with new beds. Hot breakfast with variety of items to choose from. Really like their coffee machine with different flavors which is complementary. Beautiful lobby to enjoy the breakfast. Will definitely stay in future.More</t>
   </si>
   <si>
-    <t>georgemB504VN</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r552137704-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -749,9 +1253,6 @@
     <t>Super new and clean hotel. Beds very comfy, room modern and clean. Convenient to North Dallas burbs. Breakfast typical above average LaQuinta Only way to get there however is on the ONE WAY! southbound US-75 west access road. 10' security fence and locked lobby, clean out your parked car well and dead bolt your door.More</t>
   </si>
   <si>
-    <t>764hermanp</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r551076053-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -773,9 +1274,6 @@
     <t>Hotel is new and beautiful, well kept with a friendly staff. Has a full breakfast in the am. Pool was very clean and maintained. It was also located next to my grad kid which made it easy for us. Will be returning to this hotel again.More</t>
   </si>
   <si>
-    <t>thm1999</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r550630673-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -791,15 +1289,9 @@
     <t>New hotel so it was a very nice facility.  Front desk personnel was very friendly.  Room was large but sparsely decorated.  Needs a side table by chair. Good location but a sketchy neighborhood next door. We were concerned that our vehicle might get broken in so we removed as much as possible.  MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>New hotel so it was a very nice facility.  Front desk personnel was very friendly.  Room was large but sparsely decorated.  Needs a side table by chair. Good location but a sketchy neighborhood next door. We were concerned that our vehicle might get broken in so we removed as much as possible.  More</t>
   </si>
   <si>
-    <t>naomid2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r550797179-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -815,7 +1307,229 @@
     <t>New, clean hotel in a convenient location (easy access to major highways, near several restaurants) with excellent breakfast service, heated pool, and fast wifi. Only complaint was that the curtains didn't block out the light from the parking lot.More</t>
   </si>
   <si>
-    <t>A6185OWsarak</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r547912608-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>547912608</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>New, Clean and Sparkling</t>
+  </si>
+  <si>
+    <t>This is a new property for this year, September 2017, and it doesn't disappoint.  You'll find new plush linens and towels, good gym and pool, and nice breakfast arrangement.  The staff was professional, courteous and helpful.  Dallas needed this property.  The other two properties to the South on 75/central are in need of updating so this new location is the perfect choice until then.  This property was a really good one and made you feel very comfortable about being there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2017</t>
+  </si>
+  <si>
+    <t>This is a new property for this year, September 2017, and it doesn't disappoint.  You'll find new plush linens and towels, good gym and pool, and nice breakfast arrangement.  The staff was professional, courteous and helpful.  Dallas needed this property.  The other two properties to the South on 75/central are in need of updating so this new location is the perfect choice until then.  This property was a really good one and made you feel very comfortable about being there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r545517218-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>545517218</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel.</t>
+  </si>
+  <si>
+    <t>We were traveling to Palenstine to visit the polar express and our friends were joining us. They wanted to stay in Dallas December 2nd and then leave to Palenstine the next day. We traveled 10 hours to Dallas before arriving at the hotel. We missed the turn because it's to the entrance of motel 6, so we had to go back an extra couple of miles to make it back in at the right turn. I can attest that the surrouding neighborhood was sketchy, but the hotel was tucked in the back and there were nice hotels to the right of it. We checked in and waited for our friends to arrive. I read reviews before booking and saw how many travelers said that the front desk was never there or were rude. However, the front desk lady that night was there the entire time, very friendly, and very accommodating. We ordered dinner and then decided to take our kids to the swimming pool. The swimming pool was heated and was very nice. They have a back patio leading from the pool and the back side that is completely blocked off with a privacy fence. It was also smoker friendly. As a smoker, I felt safe in that area instead of walking out front and smoking. In addition, the beds were very comfy and we really enjoyed our stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2017</t>
+  </si>
+  <si>
+    <t>We were traveling to Palenstine to visit the polar express and our friends were joining us. They wanted to stay in Dallas December 2nd and then leave to Palenstine the next day. We traveled 10 hours to Dallas before arriving at the hotel. We missed the turn because it's to the entrance of motel 6, so we had to go back an extra couple of miles to make it back in at the right turn. I can attest that the surrouding neighborhood was sketchy, but the hotel was tucked in the back and there were nice hotels to the right of it. We checked in and waited for our friends to arrive. I read reviews before booking and saw how many travelers said that the front desk was never there or were rude. However, the front desk lady that night was there the entire time, very friendly, and very accommodating. We ordered dinner and then decided to take our kids to the swimming pool. The swimming pool was heated and was very nice. They have a back patio leading from the pool and the back side that is completely blocked off with a privacy fence. It was also smoker friendly. As a smoker, I felt safe in that area instead of walking out front and smoking. In addition, the beds were very comfy and we really enjoyed our stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r545191633-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>545191633</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>Safety Issue</t>
+  </si>
+  <si>
+    <t>The hotel is very new and looks well kept, but the surrounding neighborhood is not the best. The hotel is tucked way back in a lot which has other hotels in it. There is solid wood fence blocking the parking lot from view of the surrounding neighborhood. The night I stayed there two cars were broken into, one in front of the building and one in back. While I didn't have an issues personally, I won't be returning to this La Quinta. Further, there is only one effective entrance to and from the hotel, through the parking lots of the other hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is very new and looks well kept, but the surrounding neighborhood is not the best. The hotel is tucked way back in a lot which has other hotels in it. There is solid wood fence blocking the parking lot from view of the surrounding neighborhood. The night I stayed there two cars were broken into, one in front of the building and one in back. While I didn't have an issues personally, I won't be returning to this La Quinta. Further, there is only one effective entrance to and from the hotel, through the parking lots of the other hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r543945838-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>543945838</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>New LaQuinta</t>
+  </si>
+  <si>
+    <t>A brand new LaQuinta in North Central Dallas. Everything is very clean and in good working order. The only problem I had was that the heater on the swimming pool had malfunctioned, but they were working to get it fixed.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2017</t>
+  </si>
+  <si>
+    <t>A brand new LaQuinta in North Central Dallas. Everything is very clean and in good working order. The only problem I had was that the heater on the swimming pool had malfunctioned, but they were working to get it fixed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r542631856-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>542631856</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded November 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r542565511-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>542565511</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>It was a good experience overall I just hope next time I decide I want to relax at this hotel I don’t get a dirty room, but besides that my stay was great, everything clean and nice employees, it was a good stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded November 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2017</t>
+  </si>
+  <si>
+    <t>It was a good experience overall I just hope next time I decide I want to relax at this hotel I don’t get a dirty room, but besides that my stay was great, everything clean and nice employees, it was a good stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r539370779-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>539370779</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Chiefs!!!</t>
+  </si>
+  <si>
+    <t>Me and my husband came to town for a Chiefs game and the hotel was very modern, clean and the staff was polite. The breakfast buffet  was nice.  The hotel lobby was modern and sleek looking. The room service staff was polite. Overall I would definitely stay there again MoreShow less</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Me and my husband came to town for a Chiefs game and the hotel was very modern, clean and the staff was polite. The breakfast buffet  was nice.  The hotel lobby was modern and sleek looking. The room service staff was polite. Overall I would definitely stay there again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r538140189-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>538140189</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Worst customer sever ever.</t>
+  </si>
+  <si>
+    <t>Charged both my credit card and debit card which was reported to manager via phone. Not once in 5 days did I ever get a response in how the hotel was going to resolve the issue. Management not available for me in the 5 days I spent there. Attitudes and rolling of the eyes from the employees. Will not ever return here.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded November 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2017</t>
+  </si>
+  <si>
+    <t>Charged both my credit card and debit card which was reported to manager via phone. Not once in 5 days did I ever get a response in how the hotel was going to resolve the issue. Management not available for me in the 5 days I spent there. Attitudes and rolling of the eyes from the employees. Will not ever return here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r537551803-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>537551803</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Brand New Building</t>
+  </si>
+  <si>
+    <t>The new La Quinta has a fresh, inviting interior with new beds and fixtures - if you can find it. The signage is terrible, and it's tucked behind a couple of other motels. It's truly a hidden gem - use Google maps, and arrive in the daytime.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r536614879-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>536614879</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Excellent customer service</t>
+  </si>
+  <si>
+    <t>Mika provided excellent customer service.  They allowed me to check in a little early. The rooms are clean and new.  Breakfast needs a little work but you have a variety of items.  I would stay at this location again.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r535827147-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
@@ -833,21 +1547,9 @@
     <t>Elite member,  no welcome gift,  barely had a staff member come to check us in then take forever at 3 in the morning. Breakfast was laughable, food always empty no staff their either.   Went to check out no staff again. hotel it self nice if you dont mind not getting checked in or eating or anything else that requires a human.MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t>Riad A, General Manager at La Quinta Inn &amp; Suites Dallas - Richardson, responded to this reviewResponded November 4, 2017</t>
-  </si>
-  <si>
-    <t>Responded November 4, 2017</t>
-  </si>
-  <si>
     <t>Elite member,  no welcome gift,  barely had a staff member come to check us in then take forever at 3 in the morning. Breakfast was laughable, food always empty no staff their either.   Went to check out no staff again. hotel it self nice if you dont mind not getting checked in or eating or anything else that requires a human.More</t>
   </si>
   <si>
-    <t>Antoine W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r534829761-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -866,9 +1568,6 @@
     <t>The hotel is a nice modern and newer facility.   However, the service staff fall far short of expectations.The Front Desk Staff are not welcoming or engaging nor detailed oriented.  The Front Desk Staff are dry and did not smile.  They were more like computers than people, only talked to get required information. We had confirmed a two night stay and were locked out of our room after the first night. I suggest you get to breakfast early before 8am as the food runs out.  There seems to be a daily allocation of food.  Once that allocation of food is gone before 9am, that’s it.  We came after 8am and there were no more eggs or sausage.  I asked the lady over the area were there anymore and she replied, “No more eggs or sausage.”  One reason we chose this hotel was for the “Hot Breakfast” that was supposed to last until 9am.  The hotel was a little more expensive, but we figured with the full breakfast that would balance out.  We lost on that one, we had to purchase breakfast elsewhere.When housekeeping cleaned the room, they did not replace the soiled towels they removed.  They did not leave enough towels to accommodate the two of us.More</t>
   </si>
   <si>
-    <t>576abbyc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r533641656-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -887,9 +1586,6 @@
     <t>I have stayed at many LQ hotels over the past 10 years.  This one was the best.  The lighting in the bathroom and throughout the room was more than adequate.  I could actually do my make-up in the bathroom and not look like a clown in daylight!  There was a really cool coffee machine in the lobby so that you could make fancy coffee drinks or hot chocolate any time of the day.  The lobby was beautiful and the staff was friendly and inviting.  The bed was comfortable and the bedding was soft.  It had some sort of hypo-allergenic goose down comfortable.  The air conditioner was super cold and easy to control.  Be aware you have to enter through the same parking lot as the Motel 6.  It is on a one-way street so if you miss the turn you have to circle back for more than a mile.  All the hotels in the area seemed fairly new, but few restaurants surround the area.More</t>
   </si>
   <si>
-    <t>kimberlyna2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r533021618-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -905,9 +1601,6 @@
     <t>Great Hotel in a prime activity spot in Dallas. Affordable prices and brand new. Came during the week of the state fair so every hotel around was booked. Tried this out because the prices were decent and the pictures online of the rooms were great. Staff was very welcoming even at 1:00am in the morning when we checked in. Breakfast is meh but doable. This Hotel was newly built so very trendy look and rooms are up to date modern.</t>
   </si>
   <si>
-    <t>richard m</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r531969227-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -923,9 +1616,6 @@
     <t>Terrible chec in... Henriqeutte Was in a very important personal convesation  over the phone that to do her Job, the breakfast not so good, Was the same 3 day we stay, Room clean, good size, great matress, not liked the pillows, great ac , evrithing worked, over all ok</t>
   </si>
   <si>
-    <t>KayLovett</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r529345207-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
   </si>
   <si>
@@ -942,9 +1632,6 @@
   </si>
   <si>
     <t>September 2017</t>
-  </si>
-  <si>
-    <t>JCT621</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12132047-r528719999-La_Quinta_Inn_Suites_Dallas_Richardson-Dallas_Texas.html</t>
@@ -1467,122 +2154,114 @@
       <c r="A2" t="n">
         <v>65655</v>
       </c>
-      <c r="B2" t="n">
-        <v>164811</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65655</v>
       </c>
-      <c r="B3" t="n">
-        <v>164812</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1590,12 +2269,8 @@
       <c r="Q3" t="n">
         <v>5</v>
       </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -1604,131 +2279,127 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65655</v>
       </c>
-      <c r="B4" t="n">
-        <v>3525</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="O4" t="s">
-        <v>64</v>
-      </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65655</v>
       </c>
-      <c r="B5" t="n">
-        <v>15601</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>52</v>
-      </c>
-      <c r="O5" t="s">
-        <v>64</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1740,60 +2411,56 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65655</v>
       </c>
-      <c r="B6" t="n">
-        <v>164813</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>86</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
         <v>87</v>
-      </c>
-      <c r="K6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" t="s">
-        <v>90</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1811,68 +2478,68 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65655</v>
       </c>
-      <c r="B7" t="n">
-        <v>164814</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
         <v>93</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>94</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>95</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
         <v>96</v>
       </c>
-      <c r="L7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
       <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
@@ -1882,39 +2549,35 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65655</v>
       </c>
-      <c r="B8" t="n">
-        <v>164815</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
         <v>100</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
       </c>
       <c r="I8" t="s">
         <v>101</v>
@@ -1932,15 +2595,23 @@
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -1949,60 +2620,56 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
         <v>106</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>107</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65655</v>
       </c>
-      <c r="B9" t="n">
-        <v>164816</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
         <v>110</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>111</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>112</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" t="s">
         <v>113</v>
-      </c>
-      <c r="L9" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>115</v>
-      </c>
-      <c r="O9" t="s">
-        <v>64</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2024,10 +2691,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
         <v>116</v>
@@ -2037,53 +2704,49 @@
       <c r="A10" t="n">
         <v>65655</v>
       </c>
-      <c r="B10" t="n">
-        <v>164817</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
         <v>118</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>119</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>120</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>121</v>
       </c>
-      <c r="L10" t="s">
-        <v>122</v>
-      </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O10" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
         <v>5</v>
@@ -2093,79 +2756,69 @@
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
         <v>123</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>124</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65655</v>
       </c>
-      <c r="B11" t="n">
-        <v>7151</v>
-      </c>
-      <c r="C11" t="s">
-        <v>126</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
         <v>127</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>128</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>129</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" t="s">
         <v>130</v>
       </c>
-      <c r="L11" t="s">
-        <v>131</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O11" t="s">
-        <v>64</v>
-      </c>
       <c r="P11" t="n">
         <v>5</v>
       </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -2174,73 +2827,63 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
         <v>132</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>133</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65655</v>
       </c>
-      <c r="B12" t="n">
-        <v>4206</v>
-      </c>
-      <c r="C12" t="s">
-        <v>135</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
         <v>136</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>137</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>138</v>
       </c>
-      <c r="K12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L12" t="s">
-        <v>140</v>
-      </c>
       <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
         <v>4</v>
       </c>
-      <c r="N12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" t="s">
-        <v>64</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -2249,60 +2892,56 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y12" t="s">
         <v>141</v>
-      </c>
-      <c r="X12" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65655</v>
       </c>
-      <c r="B13" t="n">
-        <v>164818</v>
-      </c>
-      <c r="C13" t="s">
-        <v>144</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
         <v>145</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>146</v>
-      </c>
-      <c r="J13" t="s">
-        <v>147</v>
-      </c>
-      <c r="K13" t="s">
-        <v>148</v>
-      </c>
-      <c r="L13" t="s">
-        <v>149</v>
-      </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="O13" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2311,430 +2950,418 @@
         <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65655</v>
       </c>
-      <c r="B14" t="n">
-        <v>164819</v>
-      </c>
-      <c r="C14" t="s">
-        <v>153</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="O14" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="X14" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65655</v>
       </c>
-      <c r="B15" t="n">
-        <v>94727</v>
-      </c>
-      <c r="C15" t="s">
-        <v>162</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="O15" t="s">
-        <v>90</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="X15" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65655</v>
       </c>
-      <c r="B16" t="n">
-        <v>164820</v>
-      </c>
-      <c r="C16" t="s">
-        <v>171</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="O16" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="X16" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65655</v>
       </c>
-      <c r="B17" t="n">
-        <v>164821</v>
-      </c>
-      <c r="C17" t="s">
-        <v>180</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X17" t="s">
         <v>177</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>178</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65655</v>
       </c>
-      <c r="B18" t="n">
-        <v>164822</v>
-      </c>
-      <c r="C18" t="s">
-        <v>187</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="J18" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="O18" t="s">
-        <v>90</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="X18" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="Y18" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65655</v>
       </c>
-      <c r="B19" t="n">
-        <v>164823</v>
-      </c>
-      <c r="C19" t="s">
-        <v>196</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="O19" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
@@ -2744,73 +3371,61 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="X19" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="Y19" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65655</v>
       </c>
-      <c r="B20" t="n">
-        <v>164824</v>
-      </c>
-      <c r="C20" t="s">
-        <v>205</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="J20" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="O20" t="s">
-        <v>64</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -2819,60 +3434,56 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65655</v>
       </c>
-      <c r="B21" t="n">
-        <v>164825</v>
-      </c>
-      <c r="C21" t="s">
-        <v>214</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="O21" t="s">
-        <v>220</v>
+        <v>96</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2881,7 +3492,7 @@
         <v>5</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2894,66 +3505,62 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65655</v>
       </c>
-      <c r="B22" t="n">
-        <v>164826</v>
-      </c>
-      <c r="C22" t="s">
-        <v>224</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="O22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
         <v>5</v>
@@ -2963,75 +3570,71 @@
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="X22" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="Y22" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65655</v>
       </c>
-      <c r="B23" t="n">
-        <v>164827</v>
-      </c>
-      <c r="C23" t="s">
-        <v>234</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="J23" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3044,60 +3647,56 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="X23" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65655</v>
       </c>
-      <c r="B24" t="n">
-        <v>164828</v>
-      </c>
-      <c r="C24" t="s">
-        <v>241</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="J24" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="K24" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="O24" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3108,7 +3707,9 @@
       <c r="R24" t="n">
         <v>5</v>
       </c>
-      <c r="S24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -3117,135 +3718,127 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="X24" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Y24" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65655</v>
       </c>
-      <c r="B25" t="n">
-        <v>164829</v>
-      </c>
-      <c r="C25" t="s">
-        <v>249</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="J25" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="K25" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="O25" t="s">
-        <v>255</v>
+        <v>96</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="X25" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="Y25" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65655</v>
       </c>
-      <c r="B26" t="n">
-        <v>164830</v>
-      </c>
-      <c r="C26" t="s">
-        <v>257</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="J26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3267,417 +3860,381 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="X26" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="Y26" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65655</v>
       </c>
-      <c r="B27" t="n">
-        <v>164831</v>
-      </c>
-      <c r="C27" t="s">
-        <v>263</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
         <v>46</v>
       </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
       <c r="I27" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J27" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="K27" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="O27" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="P27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
         <v>4</v>
       </c>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S27" t="n">
         <v>4</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="X27" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="Y27" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65655</v>
       </c>
-      <c r="B28" t="n">
-        <v>164832</v>
-      </c>
-      <c r="C28" t="s">
-        <v>273</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
         <v>46</v>
       </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
       <c r="I28" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="J28" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>2</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="X28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Y28" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65655</v>
       </c>
-      <c r="B29" t="n">
-        <v>164833</v>
-      </c>
-      <c r="C29" t="s">
-        <v>280</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
         <v>46</v>
       </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
       <c r="I29" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="J29" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="K29" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>275</v>
+      </c>
+      <c r="X29" t="s">
+        <v>276</v>
+      </c>
       <c r="Y29" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65655</v>
       </c>
-      <c r="B30" t="n">
-        <v>164834</v>
-      </c>
-      <c r="C30" t="s">
-        <v>287</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
         <v>46</v>
       </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
       <c r="I30" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="J30" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K30" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>275</v>
+      </c>
+      <c r="X30" t="s">
+        <v>276</v>
+      </c>
       <c r="Y30" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>65655</v>
       </c>
-      <c r="B31" t="n">
-        <v>164835</v>
-      </c>
-      <c r="C31" t="s">
-        <v>293</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
         <v>46</v>
       </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
       <c r="I31" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="J31" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="K31" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>90</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
       <c r="Q31" t="n">
         <v>4</v>
       </c>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>289</v>
+      </c>
+      <c r="X31" t="s">
+        <v>290</v>
+      </c>
       <c r="Y31" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>65655</v>
       </c>
-      <c r="B32" t="n">
-        <v>164836</v>
-      </c>
-      <c r="C32" t="s">
-        <v>299</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
         <v>46</v>
       </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
       <c r="I32" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="J32" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K32" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>305</v>
+        <v>201</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3686,7 +4243,7 @@
         <v>5</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -3698,71 +4255,2354 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>297</v>
+      </c>
+      <c r="X32" t="s">
+        <v>298</v>
+      </c>
       <c r="Y32" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>65655</v>
       </c>
-      <c r="B33" t="n">
-        <v>105562</v>
-      </c>
-      <c r="C33" t="s">
-        <v>306</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
         <v>46</v>
       </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
       <c r="I33" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="J33" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>201</v>
+      </c>
+      <c r="O33" t="s">
+        <v>96</v>
+      </c>
+      <c r="P33" t="n">
         <v>4</v>
       </c>
-      <c r="N33" t="s">
-        <v>305</v>
-      </c>
-      <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>305</v>
+      </c>
+      <c r="X33" t="s">
+        <v>306</v>
+      </c>
       <c r="Y33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>309</v>
+      </c>
+      <c r="J34" t="s">
+        <v>310</v>
+      </c>
+      <c r="K34" t="s">
+        <v>311</v>
+      </c>
+      <c r="L34" t="s">
         <v>312</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>201</v>
+      </c>
+      <c r="O34" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>313</v>
+      </c>
+      <c r="X34" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>316</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>317</v>
+      </c>
+      <c r="J35" t="s">
+        <v>310</v>
+      </c>
+      <c r="K35" t="s">
+        <v>318</v>
+      </c>
+      <c r="L35" t="s">
+        <v>319</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>201</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>320</v>
+      </c>
+      <c r="X35" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>323</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>324</v>
+      </c>
+      <c r="J36" t="s">
+        <v>325</v>
+      </c>
+      <c r="K36" t="s">
+        <v>326</v>
+      </c>
+      <c r="L36" t="s">
+        <v>327</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>328</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>329</v>
+      </c>
+      <c r="X36" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>332</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>333</v>
+      </c>
+      <c r="J37" t="s">
+        <v>334</v>
+      </c>
+      <c r="K37" t="s">
+        <v>335</v>
+      </c>
+      <c r="L37" t="s">
+        <v>336</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>328</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>337</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>338</v>
+      </c>
+      <c r="J38" t="s">
+        <v>339</v>
+      </c>
+      <c r="K38" t="s">
+        <v>340</v>
+      </c>
+      <c r="L38" t="s">
+        <v>341</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>328</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>342</v>
+      </c>
+      <c r="X38" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>345</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>346</v>
+      </c>
+      <c r="J39" t="s">
+        <v>347</v>
+      </c>
+      <c r="K39" t="s">
+        <v>348</v>
+      </c>
+      <c r="L39" t="s">
+        <v>349</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>350</v>
+      </c>
+      <c r="O39" t="s">
+        <v>87</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>351</v>
+      </c>
+      <c r="X39" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>354</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>355</v>
+      </c>
+      <c r="J40" t="s">
+        <v>356</v>
+      </c>
+      <c r="K40" t="s">
+        <v>357</v>
+      </c>
+      <c r="L40" t="s">
+        <v>358</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>350</v>
+      </c>
+      <c r="O40" t="s">
+        <v>96</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>359</v>
+      </c>
+      <c r="X40" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>362</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>363</v>
+      </c>
+      <c r="J41" t="s">
+        <v>356</v>
+      </c>
+      <c r="K41" t="s">
+        <v>364</v>
+      </c>
+      <c r="L41" t="s">
+        <v>365</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>350</v>
+      </c>
+      <c r="O41" t="s">
+        <v>130</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>366</v>
+      </c>
+      <c r="X41" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>369</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>370</v>
+      </c>
+      <c r="J42" t="s">
+        <v>371</v>
+      </c>
+      <c r="K42" t="s">
+        <v>372</v>
+      </c>
+      <c r="L42" t="s">
+        <v>373</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>350</v>
+      </c>
+      <c r="O42" t="s">
+        <v>130</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>374</v>
+      </c>
+      <c r="X42" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>377</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>378</v>
+      </c>
+      <c r="J43" t="s">
+        <v>379</v>
+      </c>
+      <c r="K43" t="s">
+        <v>380</v>
+      </c>
+      <c r="L43" t="s">
+        <v>381</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>350</v>
+      </c>
+      <c r="O43" t="s">
+        <v>96</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>382</v>
+      </c>
+      <c r="X43" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>385</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>386</v>
+      </c>
+      <c r="J44" t="s">
+        <v>387</v>
+      </c>
+      <c r="K44" t="s">
+        <v>388</v>
+      </c>
+      <c r="L44" t="s">
+        <v>389</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>350</v>
+      </c>
+      <c r="O44" t="s">
+        <v>130</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>390</v>
+      </c>
+      <c r="X44" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>393</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>394</v>
+      </c>
+      <c r="J45" t="s">
+        <v>395</v>
+      </c>
+      <c r="K45" t="s">
+        <v>396</v>
+      </c>
+      <c r="L45" t="s">
+        <v>397</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>350</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>382</v>
+      </c>
+      <c r="X45" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>399</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>400</v>
+      </c>
+      <c r="J46" t="s">
+        <v>401</v>
+      </c>
+      <c r="K46" t="s">
+        <v>402</v>
+      </c>
+      <c r="L46" t="s">
+        <v>403</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>350</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>382</v>
+      </c>
+      <c r="X46" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>405</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>406</v>
+      </c>
+      <c r="J47" t="s">
+        <v>407</v>
+      </c>
+      <c r="K47" t="s">
+        <v>408</v>
+      </c>
+      <c r="L47" t="s">
+        <v>409</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>410</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>382</v>
+      </c>
+      <c r="X47" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>412</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>413</v>
+      </c>
+      <c r="J48" t="s">
+        <v>414</v>
+      </c>
+      <c r="K48" t="s">
+        <v>415</v>
+      </c>
+      <c r="L48" t="s">
+        <v>416</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>410</v>
+      </c>
+      <c r="O48" t="s">
+        <v>113</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>382</v>
+      </c>
+      <c r="X48" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>418</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>419</v>
+      </c>
+      <c r="J49" t="s">
+        <v>414</v>
+      </c>
+      <c r="K49" t="s">
+        <v>420</v>
+      </c>
+      <c r="L49" t="s">
+        <v>421</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>410</v>
+      </c>
+      <c r="O49" t="s">
+        <v>130</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>382</v>
+      </c>
+      <c r="X49" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>423</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>424</v>
+      </c>
+      <c r="J50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K50" t="s">
+        <v>426</v>
+      </c>
+      <c r="L50" t="s">
+        <v>427</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>410</v>
+      </c>
+      <c r="O50" t="s">
+        <v>96</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>428</v>
+      </c>
+      <c r="X50" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>431</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>432</v>
+      </c>
+      <c r="J51" t="s">
+        <v>433</v>
+      </c>
+      <c r="K51" t="s">
+        <v>434</v>
+      </c>
+      <c r="L51" t="s">
+        <v>435</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>410</v>
+      </c>
+      <c r="O51" t="s">
+        <v>113</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>436</v>
+      </c>
+      <c r="X51" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>439</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>440</v>
+      </c>
+      <c r="J52" t="s">
+        <v>441</v>
+      </c>
+      <c r="K52" t="s">
+        <v>442</v>
+      </c>
+      <c r="L52" t="s">
+        <v>443</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>410</v>
+      </c>
+      <c r="O52" t="s">
+        <v>130</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>444</v>
+      </c>
+      <c r="X52" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>447</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>448</v>
+      </c>
+      <c r="J53" t="s">
+        <v>449</v>
+      </c>
+      <c r="K53" t="s">
+        <v>450</v>
+      </c>
+      <c r="L53" t="s">
+        <v>451</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>452</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>453</v>
+      </c>
+      <c r="X53" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>456</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>457</v>
+      </c>
+      <c r="J54" t="s">
+        <v>458</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s">
+        <v>459</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>452</v>
+      </c>
+      <c r="O54" t="s">
+        <v>96</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>460</v>
+      </c>
+      <c r="X54" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>463</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>464</v>
+      </c>
+      <c r="J55" t="s">
+        <v>465</v>
+      </c>
+      <c r="K55" t="s">
+        <v>466</v>
+      </c>
+      <c r="L55" t="s">
+        <v>467</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>452</v>
+      </c>
+      <c r="O55" t="s">
+        <v>87</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>468</v>
+      </c>
+      <c r="X55" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>471</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>472</v>
+      </c>
+      <c r="J56" t="s">
+        <v>473</v>
+      </c>
+      <c r="K56" t="s">
+        <v>474</v>
+      </c>
+      <c r="L56" t="s">
+        <v>475</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>452</v>
+      </c>
+      <c r="O56" t="s">
+        <v>130</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>476</v>
+      </c>
+      <c r="X56" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>479</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>480</v>
+      </c>
+      <c r="J57" t="s">
+        <v>481</v>
+      </c>
+      <c r="K57" t="s">
+        <v>482</v>
+      </c>
+      <c r="L57" t="s">
+        <v>483</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>484</v>
+      </c>
+      <c r="O57" t="s">
+        <v>87</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>485</v>
+      </c>
+      <c r="X57" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>488</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>489</v>
+      </c>
+      <c r="J58" t="s">
+        <v>490</v>
+      </c>
+      <c r="K58" t="s">
+        <v>491</v>
+      </c>
+      <c r="L58" t="s">
+        <v>492</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>484</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>493</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>494</v>
+      </c>
+      <c r="J59" t="s">
+        <v>495</v>
+      </c>
+      <c r="K59" t="s">
+        <v>496</v>
+      </c>
+      <c r="L59" t="s">
+        <v>497</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>484</v>
+      </c>
+      <c r="O59" t="s">
+        <v>96</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>498</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>499</v>
+      </c>
+      <c r="J60" t="s">
+        <v>500</v>
+      </c>
+      <c r="K60" t="s">
+        <v>501</v>
+      </c>
+      <c r="L60" t="s">
+        <v>502</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>484</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>485</v>
+      </c>
+      <c r="X60" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>504</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>505</v>
+      </c>
+      <c r="J61" t="s">
+        <v>506</v>
+      </c>
+      <c r="K61" t="s">
+        <v>507</v>
+      </c>
+      <c r="L61" t="s">
+        <v>508</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>484</v>
+      </c>
+      <c r="O61" t="s">
+        <v>130</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>485</v>
+      </c>
+      <c r="X61" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>510</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>511</v>
+      </c>
+      <c r="J62" t="s">
+        <v>512</v>
+      </c>
+      <c r="K62" t="s">
+        <v>513</v>
+      </c>
+      <c r="L62" t="s">
+        <v>514</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>484</v>
+      </c>
+      <c r="O62" t="s">
+        <v>130</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>516</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>517</v>
+      </c>
+      <c r="J63" t="s">
+        <v>518</v>
+      </c>
+      <c r="K63" t="s">
+        <v>519</v>
+      </c>
+      <c r="L63" t="s">
+        <v>520</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>484</v>
+      </c>
+      <c r="O63" t="s">
+        <v>130</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>521</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>522</v>
+      </c>
+      <c r="J64" t="s">
+        <v>523</v>
+      </c>
+      <c r="K64" t="s">
+        <v>524</v>
+      </c>
+      <c r="L64" t="s">
+        <v>525</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>484</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>526</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>527</v>
+      </c>
+      <c r="J65" t="s">
+        <v>528</v>
+      </c>
+      <c r="K65" t="s">
+        <v>529</v>
+      </c>
+      <c r="L65" t="s">
+        <v>530</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>531</v>
+      </c>
+      <c r="O65" t="s">
+        <v>130</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65655</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>532</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>533</v>
+      </c>
+      <c r="J66" t="s">
+        <v>534</v>
+      </c>
+      <c r="K66" t="s">
+        <v>535</v>
+      </c>
+      <c r="L66" t="s">
+        <v>536</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>531</v>
+      </c>
+      <c r="O66" t="s">
+        <v>130</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
